--- a/doc/proj/需求/报表开发.xlsx
+++ b/doc/proj/需求/报表开发.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ThinkingAgain\PueProject\doc\proj\需求\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\PueProject\doc\proj\需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE931640-533D-422F-9BBA-2546AB5CC51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E833A05E-0B43-40B2-9259-7A8521BB40CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全市用电报表" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>能源系统信息</t>
   </si>
@@ -126,13 +126,81 @@
   </si>
   <si>
     <t>PUE</t>
+  </si>
+  <si>
+    <t>PUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy-datas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>county</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consumption_check</t>
+  </si>
+  <si>
+    <t>payment_check</t>
+  </si>
+  <si>
+    <t>current_price</t>
+  </si>
+  <si>
+    <t>current_datas</t>
+  </si>
+  <si>
+    <t>current_datas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRODUCT/TOTAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFICE/TOTAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUSINESS/TOTAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEASE/TOTAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费*生产用电比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费*办公用电比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费*营业用电比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费*外租用电比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +223,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -206,7 +282,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -224,6 +300,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -535,101 +620,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="8" width="12.90625" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" customWidth="1"/>
-    <col min="10" max="12" width="12.90625" customWidth="1"/>
-    <col min="13" max="13" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.15625" customWidth="1"/>
+    <col min="2" max="2" width="23.20703125" customWidth="1"/>
+    <col min="3" max="3" width="8.20703125" customWidth="1"/>
+    <col min="6" max="8" width="12.89453125" customWidth="1"/>
+    <col min="9" max="9" width="11.89453125" customWidth="1"/>
+    <col min="10" max="12" width="12.89453125" customWidth="1"/>
+    <col min="13" max="13" width="10.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J3" t="s">
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="K3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -645,15 +884,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="48.90625" customWidth="1"/>
+    <col min="1" max="1" width="11.26171875" customWidth="1"/>
+    <col min="2" max="2" width="22.62890625" customWidth="1"/>
+    <col min="3" max="3" width="21.26171875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="48.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -667,7 +906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>22</v>
@@ -679,31 +918,31 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
@@ -725,35 +964,35 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="12.90625" customWidth="1"/>
-    <col min="7" max="8" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.89453125" customWidth="1"/>
+    <col min="7" max="8" width="12.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
@@ -779,7 +1018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>32</v>
       </c>

--- a/doc/proj/需求/报表开发.xlsx
+++ b/doc/proj/需求/报表开发.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\PueProject\doc\proj\需求\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ThinkingAgain\PueProject\doc\proj\需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E833A05E-0B43-40B2-9259-7A8521BB40CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A71CCC-D007-4DFF-986D-376E2D3043E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全市用电报表" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>能源系统信息</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>看看哪个口径好统计</t>
-  </si>
-  <si>
-    <t>用电流换算用夜间电量？电流*220/54*1.52/24*小时数</t>
   </si>
   <si>
     <t>电流信息</t>
@@ -194,6 +191,22 @@
   <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公+营业&gt;1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分成2个: 平均和最大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用电流换算用夜间电量？电流*220/54*1.52/24*小时数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日22:00 - 次日 06:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -282,7 +295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -309,6 +322,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -622,47 +638,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.15625" customWidth="1"/>
-    <col min="2" max="2" width="23.20703125" customWidth="1"/>
-    <col min="3" max="3" width="8.20703125" customWidth="1"/>
-    <col min="6" max="8" width="12.89453125" customWidth="1"/>
-    <col min="9" max="9" width="11.89453125" customWidth="1"/>
-    <col min="10" max="12" width="12.89453125" customWidth="1"/>
-    <col min="13" max="13" width="10.89453125" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" customWidth="1"/>
+    <col min="6" max="8" width="12.90625" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" customWidth="1"/>
+    <col min="10" max="12" width="12.90625" customWidth="1"/>
+    <col min="13" max="13" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
       <c r="O1" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -670,7 +686,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -707,161 +723,161 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -878,21 +894,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26171875" customWidth="1"/>
-    <col min="2" max="2" width="22.62890625" customWidth="1"/>
-    <col min="3" max="3" width="21.26171875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="48.89453125" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="48.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -906,7 +922,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>22</v>
@@ -914,40 +930,50 @@
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D2" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
+      <c r="D7" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -964,46 +990,46 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.89453125" customWidth="1"/>
-    <col min="7" max="8" width="12.89453125" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
+    <col min="7" max="8" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
@@ -1018,9 +1044,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/doc/proj/需求/报表开发.xlsx
+++ b/doc/proj/需求/报表开发.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ThinkingAgain\PueProject\doc\proj\需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A71CCC-D007-4DFF-986D-376E2D3043E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C00ACF5-2907-4009-B9BD-C30B87470922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全市用电报表" sheetId="2" r:id="rId1"/>
@@ -896,7 +896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -986,13 +986,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.90625" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" customWidth="1"/>
     <col min="7" max="8" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/doc/proj/需求/报表开发.xlsx
+++ b/doc/proj/需求/报表开发.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ThinkingAgain\PueProject\doc\proj\需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C00ACF5-2907-4009-B9BD-C30B87470922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09432845-BED5-452F-A655-51F7CCC164C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="89">
   <si>
     <t>能源系统信息</t>
   </si>
@@ -206,6 +206,112 @@
   </si>
   <si>
     <t>当日22:00 - 次日 06:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">新增报表: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级用电点-办公营业用电预警表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用电地点（二级采集点）</t>
+  </si>
+  <si>
+    <t>842局综合楼</t>
+  </si>
+  <si>
+    <t>食堂</t>
+  </si>
+  <si>
+    <t>用电流换算用夜间电量？电流*220/54*1.52/24*小时数</t>
+  </si>
+  <si>
+    <t>采集编号计算</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>中央空调</t>
+  </si>
+  <si>
+    <t>办公</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>办公楼（不含二楼、14会议室及部分六楼办公）</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>二楼会议室-大</t>
+  </si>
+  <si>
+    <t>B8-C3-C4</t>
+  </si>
+  <si>
+    <t>二楼会议室-小</t>
+  </si>
+  <si>
+    <t>下一批采集</t>
+  </si>
+  <si>
+    <t>六楼办公</t>
+  </si>
+  <si>
+    <t>14楼会议室</t>
+  </si>
+  <si>
+    <t>营业大厅</t>
+  </si>
+  <si>
+    <t>营业空调</t>
+  </si>
+  <si>
+    <t>营业</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>UPS营业</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>外租</t>
+  </si>
+  <si>
+    <t>工商局</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>大数据局机房</t>
+  </si>
+  <si>
+    <t>A5+B1</t>
+  </si>
+  <si>
+    <t>大数据办公</t>
+  </si>
+  <si>
+    <t>A6+A7</t>
+  </si>
+  <si>
+    <t>电流信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级用电点-实时报表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,8 +357,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,8 +389,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -289,13 +419,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -324,6 +480,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -638,7 +818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -657,23 +837,23 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
       <c r="O1" s="2" t="s">
         <v>32</v>
       </c>
@@ -894,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -908,7 +1088,7 @@
     <col min="4" max="4" width="48.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -922,7 +1102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>22</v>
@@ -934,7 +1114,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="9" t="s">
@@ -942,25 +1122,25 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -970,10 +1150,300 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>51</v>
       </c>
+    </row>
+    <row r="13" spans="1:10" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C27"/>
+      <c r="D27" s="3"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C28"/>
+      <c r="D28" s="3"/>
+      <c r="G28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C29"/>
+      <c r="D29" s="3"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C30"/>
+      <c r="D30" s="3"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C31"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C32"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33"/>
+      <c r="D33" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -984,15 +1454,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
     <col min="4" max="4" width="20.453125" customWidth="1"/>
     <col min="5" max="5" width="15.453125" customWidth="1"/>
     <col min="6" max="6" width="15.1796875" customWidth="1"/>
@@ -1000,28 +1472,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
@@ -1051,6 +1523,116 @@
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
